--- a/Original/CN/Game/Floor.xlsx
+++ b/Original/CN/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Original/CN/Game/Floor.xlsx
+++ b/Original/CN/Game/Floor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="296">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -695,6 +695,24 @@
     <t xml:space="preserve">120</t>
   </si>
   <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red algae floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅藻の床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seabed floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底の床</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -740,6 +758,12 @@
     <t xml:space="preserve">Beta 22.57</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.145</t>
+  </si>
+  <si>
     <t xml:space="preserve">硬土地板</t>
   </si>
   <si>
@@ -873,6 +897,12 @@
   </si>
   <si>
     <t xml:space="preserve">桥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">红藻地板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底地板</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -996,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1015,10 +1045,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1034,10 +1064,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1053,10 +1083,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1072,10 +1102,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1091,10 +1121,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1110,10 +1140,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1129,10 +1159,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1148,10 +1178,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1167,10 +1197,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1186,10 +1216,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1205,10 +1235,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1224,10 +1254,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1243,10 +1273,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1262,10 +1292,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1281,10 +1311,10 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1300,10 +1330,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1319,10 +1349,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1338,10 +1368,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1357,10 +1387,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -1376,10 +1406,10 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1395,10 +1425,10 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -1414,10 +1444,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1433,10 +1463,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1452,10 +1482,10 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1471,10 +1501,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1490,10 +1520,10 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
@@ -1509,10 +1539,10 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1528,10 +1558,10 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -1547,10 +1577,10 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1566,10 +1596,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1585,10 +1615,10 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1604,10 +1634,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -1623,10 +1653,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1642,10 +1672,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
@@ -1661,10 +1691,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
@@ -1680,10 +1710,10 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
@@ -1699,10 +1729,10 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -1718,10 +1748,10 @@
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
@@ -1737,10 +1767,10 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -1756,10 +1786,10 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -1775,10 +1805,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C45" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
@@ -1794,7 +1824,7 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
         <v>109</v>
@@ -1813,10 +1843,10 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -1832,10 +1862,10 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D48" t="s">
         <v>102</v>
@@ -1851,10 +1881,10 @@
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1870,10 +1900,10 @@
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -1889,10 +1919,10 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -1908,10 +1938,10 @@
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C52" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D52" t="s">
         <v>119</v>
@@ -1927,10 +1957,10 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D53" t="s">
         <v>122</v>
@@ -1946,10 +1976,10 @@
         <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D54" t="s">
         <v>122</v>
@@ -1965,10 +1995,10 @@
         <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -1984,10 +2014,10 @@
         <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -2003,10 +2033,10 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -2022,10 +2052,10 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2041,10 +2071,10 @@
         <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
@@ -2060,10 +2090,10 @@
         <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2079,10 +2109,10 @@
         <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C61" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
@@ -2098,10 +2128,10 @@
         <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -2117,10 +2147,10 @@
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -2136,10 +2166,10 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C64" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -2155,10 +2185,10 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2174,10 +2204,10 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -2193,10 +2223,10 @@
         <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C67" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -2212,10 +2242,10 @@
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -2231,10 +2261,10 @@
         <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -2250,10 +2280,10 @@
         <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
@@ -2269,10 +2299,10 @@
         <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s">
         <v>63</v>
@@ -2288,10 +2318,10 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
@@ -2307,10 +2337,10 @@
         <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D73" t="s">
         <v>63</v>
@@ -2326,10 +2356,10 @@
         <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D74" t="s">
         <v>63</v>
@@ -2345,10 +2375,10 @@
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
         <v>148</v>
@@ -2364,10 +2394,10 @@
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2383,10 +2413,10 @@
         <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
@@ -2402,10 +2432,10 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -2421,10 +2451,10 @@
         <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C79" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2440,10 +2470,10 @@
         <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D80" t="s">
         <v>161</v>
@@ -2459,10 +2489,10 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D81" t="s">
         <v>164</v>
@@ -2478,10 +2508,10 @@
         <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
@@ -2497,10 +2527,10 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -2516,10 +2546,10 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -2535,10 +2565,10 @@
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -2554,10 +2584,10 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -2573,10 +2603,10 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -2592,10 +2622,10 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -2611,10 +2641,10 @@
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -2630,10 +2660,10 @@
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -2649,10 +2679,10 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -2668,10 +2698,10 @@
         <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -2687,10 +2717,10 @@
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D93" t="s">
         <v>180</v>
@@ -2706,10 +2736,10 @@
         <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D94" t="s">
         <v>63</v>
@@ -2725,10 +2755,10 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C95" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D95" t="s">
         <v>164</v>
@@ -2744,10 +2774,10 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C96" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D96" t="s">
         <v>185</v>
@@ -2763,10 +2793,10 @@
         <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D97" t="s">
         <v>188</v>
@@ -2782,10 +2812,10 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -2801,10 +2831,10 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D99" t="s">
         <v>192</v>
@@ -2820,10 +2850,10 @@
         <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D100" t="s">
         <v>192</v>
@@ -2839,10 +2869,10 @@
         <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C101" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D101" t="s">
         <v>185</v>
@@ -2858,10 +2888,10 @@
         <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D102" t="s">
         <v>197</v>
@@ -2877,10 +2907,10 @@
         <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D103" t="s">
         <v>200</v>
@@ -2896,10 +2926,10 @@
         <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -2915,10 +2945,10 @@
         <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
@@ -2934,10 +2964,10 @@
         <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -2953,10 +2983,10 @@
         <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C107" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
@@ -2972,10 +3002,10 @@
         <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
@@ -2991,10 +3021,10 @@
         <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C109" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
@@ -3010,10 +3040,10 @@
         <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D110" t="s">
         <v>63</v>
@@ -3029,10 +3059,10 @@
         <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -3048,10 +3078,10 @@
         <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C112" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -3067,10 +3097,10 @@
         <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D113" t="s">
         <v>63</v>
@@ -3086,10 +3116,10 @@
         <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D114" t="s">
         <v>63</v>
@@ -3105,10 +3135,10 @@
         <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D115" t="s">
         <v>214</v>
@@ -3124,10 +3154,10 @@
         <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D116" t="s">
         <v>217</v>
@@ -3143,10 +3173,10 @@
         <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D117" t="s">
         <v>217</v>
@@ -3162,10 +3192,10 @@
         <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D118" t="s">
         <v>50</v>
@@ -3181,10 +3211,10 @@
         <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
@@ -3200,10 +3230,10 @@
         <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C120" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -3219,10 +3249,10 @@
         <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C121" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
         <v>50</v>
@@ -3238,10 +3268,10 @@
         <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D122" t="s">
         <v>50</v>
@@ -3257,10 +3287,10 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C123" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D123" t="s">
         <v>50</v>
@@ -3270,6 +3300,44 @@
       </c>
       <c r="G123"/>
       <c r="H123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" t="s">
+        <v>294</v>
+      </c>
+      <c r="D124" t="s">
+        <v>227</v>
+      </c>
+      <c r="E124" t="s">
+        <v>228</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" t="s">
+        <v>295</v>
+      </c>
+      <c r="D125" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125" t="s">
+        <v>231</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Floor.xlsx
+++ b/Original/CN/Game/Floor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="312">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -713,6 +713,36 @@
     <t xml:space="preserve">海底の床</t>
   </si>
   <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チョコレートの床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biscuit floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスケットの床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キノコの床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -764,6 +794,15 @@
     <t xml:space="preserve">EA 23.145</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.183</t>
+  </si>
+  <si>
     <t xml:space="preserve">硬土地板</t>
   </si>
   <si>
@@ -903,6 +942,15 @@
   </si>
   <si>
     <t xml:space="preserve">海底地板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巧克力地板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饼干地板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蘑菇地板</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1026,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1045,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1064,10 +1112,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1083,10 +1131,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1102,10 +1150,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1121,10 +1169,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1140,10 +1188,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1159,10 +1207,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1178,10 +1226,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1197,10 +1245,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1216,10 +1264,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1235,10 +1283,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1254,10 +1302,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1273,10 +1321,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1292,10 +1340,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1311,10 +1359,10 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1330,10 +1378,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1349,10 +1397,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1368,10 +1416,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1387,10 +1435,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -1406,10 +1454,10 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1425,10 +1473,10 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -1444,10 +1492,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1463,10 +1511,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1482,10 +1530,10 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1501,10 +1549,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1520,10 +1568,10 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
@@ -1539,10 +1587,10 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1558,10 +1606,10 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -1577,10 +1625,10 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1596,10 +1644,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1615,10 +1663,10 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1634,10 +1682,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -1653,10 +1701,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1672,10 +1720,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
@@ -1691,10 +1739,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
@@ -1710,10 +1758,10 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
@@ -1729,10 +1777,10 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -1748,10 +1796,10 @@
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
@@ -1767,10 +1815,10 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -1786,10 +1834,10 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -1805,10 +1853,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
@@ -1824,7 +1872,7 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
         <v>109</v>
@@ -1843,10 +1891,10 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -1862,10 +1910,10 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D48" t="s">
         <v>102</v>
@@ -1881,10 +1929,10 @@
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1900,10 +1948,10 @@
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C50" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -1919,10 +1967,10 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -1938,10 +1986,10 @@
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D52" t="s">
         <v>119</v>
@@ -1957,10 +2005,10 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D53" t="s">
         <v>122</v>
@@ -1976,10 +2024,10 @@
         <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D54" t="s">
         <v>122</v>
@@ -1995,10 +2043,10 @@
         <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -2014,10 +2062,10 @@
         <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -2033,10 +2081,10 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -2052,10 +2100,10 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2071,10 +2119,10 @@
         <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
@@ -2090,10 +2138,10 @@
         <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2109,10 +2157,10 @@
         <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
@@ -2128,10 +2176,10 @@
         <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -2147,10 +2195,10 @@
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -2166,10 +2214,10 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -2185,10 +2233,10 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2204,10 +2252,10 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -2223,10 +2271,10 @@
         <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -2242,10 +2290,10 @@
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -2261,10 +2309,10 @@
         <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C69" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -2280,10 +2328,10 @@
         <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
@@ -2299,10 +2347,10 @@
         <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
         <v>63</v>
@@ -2318,10 +2366,10 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
@@ -2337,10 +2385,10 @@
         <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D73" t="s">
         <v>63</v>
@@ -2356,10 +2404,10 @@
         <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D74" t="s">
         <v>63</v>
@@ -2375,10 +2423,10 @@
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C75" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D75" t="s">
         <v>148</v>
@@ -2394,10 +2442,10 @@
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2413,10 +2461,10 @@
         <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
@@ -2432,10 +2480,10 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -2451,10 +2499,10 @@
         <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2470,10 +2518,10 @@
         <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D80" t="s">
         <v>161</v>
@@ -2489,10 +2537,10 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D81" t="s">
         <v>164</v>
@@ -2508,10 +2556,10 @@
         <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
@@ -2527,10 +2575,10 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C83" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -2546,10 +2594,10 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -2565,10 +2613,10 @@
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C85" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -2584,10 +2632,10 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -2603,10 +2651,10 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -2622,10 +2670,10 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -2641,10 +2689,10 @@
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -2660,10 +2708,10 @@
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -2679,10 +2727,10 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -2698,10 +2746,10 @@
         <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -2717,10 +2765,10 @@
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
         <v>180</v>
@@ -2736,10 +2784,10 @@
         <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
         <v>63</v>
@@ -2755,10 +2803,10 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D95" t="s">
         <v>164</v>
@@ -2774,10 +2822,10 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D96" t="s">
         <v>185</v>
@@ -2793,10 +2841,10 @@
         <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D97" t="s">
         <v>188</v>
@@ -2812,10 +2860,10 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -2831,10 +2879,10 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D99" t="s">
         <v>192</v>
@@ -2850,10 +2898,10 @@
         <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D100" t="s">
         <v>192</v>
@@ -2869,10 +2917,10 @@
         <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D101" t="s">
         <v>185</v>
@@ -2888,10 +2936,10 @@
         <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="D102" t="s">
         <v>197</v>
@@ -2907,10 +2955,10 @@
         <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
         <v>200</v>
@@ -2926,10 +2974,10 @@
         <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -2945,10 +2993,10 @@
         <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
@@ -2964,10 +3012,10 @@
         <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -2983,10 +3031,10 @@
         <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C107" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
@@ -3002,10 +3050,10 @@
         <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
@@ -3021,10 +3069,10 @@
         <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C109" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
@@ -3040,10 +3088,10 @@
         <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D110" t="s">
         <v>63</v>
@@ -3059,10 +3107,10 @@
         <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C111" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -3078,10 +3126,10 @@
         <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C112" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -3097,10 +3145,10 @@
         <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D113" t="s">
         <v>63</v>
@@ -3116,10 +3164,10 @@
         <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D114" t="s">
         <v>63</v>
@@ -3135,10 +3183,10 @@
         <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D115" t="s">
         <v>214</v>
@@ -3154,10 +3202,10 @@
         <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D116" t="s">
         <v>217</v>
@@ -3173,10 +3221,10 @@
         <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D117" t="s">
         <v>217</v>
@@ -3192,10 +3240,10 @@
         <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C118" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D118" t="s">
         <v>50</v>
@@ -3211,10 +3259,10 @@
         <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C119" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
@@ -3230,10 +3278,10 @@
         <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C120" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -3249,10 +3297,10 @@
         <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D121" t="s">
         <v>50</v>
@@ -3268,10 +3316,10 @@
         <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D122" t="s">
         <v>50</v>
@@ -3287,10 +3335,10 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C123" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D123" t="s">
         <v>50</v>
@@ -3306,10 +3354,10 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C124" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D124" t="s">
         <v>227</v>
@@ -3325,10 +3373,10 @@
         <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D125" t="s">
         <v>230</v>
@@ -3338,6 +3386,82 @@
       </c>
       <c r="G125"/>
       <c r="H125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>232</v>
+      </c>
+      <c r="B126" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" t="s">
+        <v>233</v>
+      </c>
+      <c r="E126" t="s">
+        <v>234</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>235</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" t="s">
+        <v>236</v>
+      </c>
+      <c r="E127" t="s">
+        <v>237</v>
+      </c>
+      <c r="G127"/>
+      <c r="H127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>238</v>
+      </c>
+      <c r="B128" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" t="s">
+        <v>240</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>241</v>
+      </c>
+      <c r="B129" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129" t="s">
+        <v>311</v>
+      </c>
+      <c r="D129" t="s">
+        <v>239</v>
+      </c>
+      <c r="E129" t="s">
+        <v>240</v>
+      </c>
+      <c r="G129"/>
+      <c r="H129"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Floor.xlsx
+++ b/Original/CN/Game/Floor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="314">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -743,6 +743,9 @@
     <t xml:space="preserve">126</t>
   </si>
   <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -801,6 +804,9 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.234</t>
   </si>
   <si>
     <t xml:space="preserve">硬土地板</t>
@@ -1062,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1074,10 +1080,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1093,10 +1099,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1112,10 +1118,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1131,10 +1137,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1150,10 +1156,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1169,10 +1175,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1188,10 +1194,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1207,10 +1213,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1226,10 +1232,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1245,10 +1251,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1264,10 +1270,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1283,10 +1289,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1302,10 +1308,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1321,10 +1327,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1340,10 +1346,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1359,10 +1365,10 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1378,10 +1384,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1397,10 +1403,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1416,10 +1422,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1435,10 +1441,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -1454,10 +1460,10 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1473,10 +1479,10 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -1492,10 +1498,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1511,10 +1517,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1530,10 +1536,10 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1549,10 +1555,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1568,10 +1574,10 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
@@ -1587,10 +1593,10 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1606,10 +1612,10 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -1625,10 +1631,10 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1644,10 +1650,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1663,10 +1669,10 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1682,10 +1688,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -1701,10 +1707,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1720,10 +1726,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
@@ -1739,10 +1745,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
@@ -1758,10 +1764,10 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
@@ -1777,10 +1783,10 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -1796,10 +1802,10 @@
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
@@ -1815,10 +1821,10 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -1834,10 +1840,10 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -1853,10 +1859,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
@@ -1872,7 +1878,7 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
         <v>109</v>
@@ -1891,10 +1897,10 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -1910,10 +1916,10 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D48" t="s">
         <v>102</v>
@@ -1929,10 +1935,10 @@
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1948,10 +1954,10 @@
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -1967,10 +1973,10 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -1986,10 +1992,10 @@
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D52" t="s">
         <v>119</v>
@@ -2005,10 +2011,10 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D53" t="s">
         <v>122</v>
@@ -2024,10 +2030,10 @@
         <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D54" t="s">
         <v>122</v>
@@ -2043,10 +2049,10 @@
         <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C55" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -2062,10 +2068,10 @@
         <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -2081,10 +2087,10 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -2100,10 +2106,10 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2119,10 +2125,10 @@
         <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C59" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
@@ -2138,10 +2144,10 @@
         <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2157,10 +2163,10 @@
         <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
@@ -2176,10 +2182,10 @@
         <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -2195,10 +2201,10 @@
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -2214,10 +2220,10 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -2233,10 +2239,10 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2252,10 +2258,10 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -2271,10 +2277,10 @@
         <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -2290,10 +2296,10 @@
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -2309,10 +2315,10 @@
         <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -2328,10 +2334,10 @@
         <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
@@ -2347,10 +2353,10 @@
         <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D71" t="s">
         <v>63</v>
@@ -2366,10 +2372,10 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
@@ -2385,10 +2391,10 @@
         <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
         <v>63</v>
@@ -2404,10 +2410,10 @@
         <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D74" t="s">
         <v>63</v>
@@ -2423,10 +2429,10 @@
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D75" t="s">
         <v>148</v>
@@ -2442,10 +2448,10 @@
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2461,10 +2467,10 @@
         <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
@@ -2480,10 +2486,10 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -2499,10 +2505,10 @@
         <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2518,10 +2524,10 @@
         <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D80" t="s">
         <v>161</v>
@@ -2537,10 +2543,10 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D81" t="s">
         <v>164</v>
@@ -2556,10 +2562,10 @@
         <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
@@ -2575,10 +2581,10 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -2594,10 +2600,10 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -2613,10 +2619,10 @@
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C85" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -2632,10 +2638,10 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -2651,10 +2657,10 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -2670,10 +2676,10 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C88" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -2689,10 +2695,10 @@
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -2708,10 +2714,10 @@
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -2727,10 +2733,10 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -2746,10 +2752,10 @@
         <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C92" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -2765,10 +2771,10 @@
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D93" t="s">
         <v>180</v>
@@ -2784,10 +2790,10 @@
         <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D94" t="s">
         <v>63</v>
@@ -2803,10 +2809,10 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D95" t="s">
         <v>164</v>
@@ -2822,10 +2828,10 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D96" t="s">
         <v>185</v>
@@ -2841,10 +2847,10 @@
         <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D97" t="s">
         <v>188</v>
@@ -2860,10 +2866,10 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C98" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -2879,10 +2885,10 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
         <v>192</v>
@@ -2898,10 +2904,10 @@
         <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C100" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s">
         <v>192</v>
@@ -2917,10 +2923,10 @@
         <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D101" t="s">
         <v>185</v>
@@ -2936,10 +2942,10 @@
         <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
         <v>197</v>
@@ -2955,10 +2961,10 @@
         <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D103" t="s">
         <v>200</v>
@@ -2974,10 +2980,10 @@
         <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C104" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -2993,10 +2999,10 @@
         <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C105" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
@@ -3012,10 +3018,10 @@
         <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -3031,10 +3037,10 @@
         <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
@@ -3050,10 +3056,10 @@
         <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C108" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
@@ -3069,10 +3075,10 @@
         <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C109" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
@@ -3088,10 +3094,10 @@
         <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D110" t="s">
         <v>63</v>
@@ -3107,10 +3113,10 @@
         <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -3126,10 +3132,10 @@
         <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -3145,10 +3151,10 @@
         <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D113" t="s">
         <v>63</v>
@@ -3164,10 +3170,10 @@
         <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C114" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D114" t="s">
         <v>63</v>
@@ -3183,10 +3189,10 @@
         <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" t="s">
         <v>214</v>
@@ -3202,10 +3208,10 @@
         <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D116" t="s">
         <v>217</v>
@@ -3221,10 +3227,10 @@
         <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D117" t="s">
         <v>217</v>
@@ -3240,10 +3246,10 @@
         <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C118" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D118" t="s">
         <v>50</v>
@@ -3259,10 +3265,10 @@
         <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
@@ -3278,10 +3284,10 @@
         <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C120" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -3297,10 +3303,10 @@
         <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C121" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D121" t="s">
         <v>50</v>
@@ -3316,10 +3322,10 @@
         <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C122" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D122" t="s">
         <v>50</v>
@@ -3335,10 +3341,10 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D123" t="s">
         <v>50</v>
@@ -3354,10 +3360,10 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D124" t="s">
         <v>227</v>
@@ -3373,10 +3379,10 @@
         <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C125" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D125" t="s">
         <v>230</v>
@@ -3392,10 +3398,10 @@
         <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D126" t="s">
         <v>233</v>
@@ -3411,10 +3417,10 @@
         <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C127" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D127" t="s">
         <v>236</v>
@@ -3430,10 +3436,10 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C128" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D128" t="s">
         <v>239</v>
@@ -3449,10 +3455,10 @@
         <v>241</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D129" t="s">
         <v>239</v>
@@ -3462,6 +3468,25 @@
       </c>
       <c r="G129"/>
       <c r="H129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>242</v>
+      </c>
+      <c r="B130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="G130"/>
+      <c r="H130"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Floor.xlsx
+++ b/Original/CN/Game/Floor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="312">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -743,9 +743,6 @@
     <t xml:space="preserve">126</t>
   </si>
   <si>
-    <t xml:space="preserve">127</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -804,9 +801,6 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.234</t>
   </si>
   <si>
     <t xml:space="preserve">硬土地板</t>
@@ -1068,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1080,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1099,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1118,10 +1112,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1137,10 +1131,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1156,10 +1150,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1175,10 +1169,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1194,10 +1188,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1213,10 +1207,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1232,10 +1226,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1251,10 +1245,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1270,10 +1264,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1289,10 +1283,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1308,10 +1302,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1327,10 +1321,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1346,10 +1340,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1365,10 +1359,10 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1384,10 +1378,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1403,10 +1397,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1422,10 +1416,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1441,10 +1435,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -1460,10 +1454,10 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1479,10 +1473,10 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -1498,10 +1492,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1517,10 +1511,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1536,10 +1530,10 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1555,10 +1549,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1574,10 +1568,10 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
@@ -1593,10 +1587,10 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1612,10 +1606,10 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -1631,10 +1625,10 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1650,10 +1644,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1669,10 +1663,10 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1688,10 +1682,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -1707,10 +1701,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1726,10 +1720,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
@@ -1745,10 +1739,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
@@ -1764,10 +1758,10 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
@@ -1783,10 +1777,10 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -1802,10 +1796,10 @@
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
@@ -1821,10 +1815,10 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -1840,10 +1834,10 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -1859,10 +1853,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
@@ -1878,7 +1872,7 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
         <v>109</v>
@@ -1897,10 +1891,10 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -1916,10 +1910,10 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D48" t="s">
         <v>102</v>
@@ -1935,10 +1929,10 @@
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1954,10 +1948,10 @@
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -1973,10 +1967,10 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -1992,10 +1986,10 @@
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D52" t="s">
         <v>119</v>
@@ -2011,10 +2005,10 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D53" t="s">
         <v>122</v>
@@ -2030,10 +2024,10 @@
         <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D54" t="s">
         <v>122</v>
@@ -2049,10 +2043,10 @@
         <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -2068,10 +2062,10 @@
         <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -2087,10 +2081,10 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -2106,10 +2100,10 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2125,10 +2119,10 @@
         <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
@@ -2144,10 +2138,10 @@
         <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2163,10 +2157,10 @@
         <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
@@ -2182,10 +2176,10 @@
         <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -2201,10 +2195,10 @@
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -2220,10 +2214,10 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -2239,10 +2233,10 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2258,10 +2252,10 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -2277,10 +2271,10 @@
         <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -2296,10 +2290,10 @@
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -2315,10 +2309,10 @@
         <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C69" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -2334,10 +2328,10 @@
         <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
@@ -2353,10 +2347,10 @@
         <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
         <v>63</v>
@@ -2372,10 +2366,10 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
@@ -2391,10 +2385,10 @@
         <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D73" t="s">
         <v>63</v>
@@ -2410,10 +2404,10 @@
         <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D74" t="s">
         <v>63</v>
@@ -2429,10 +2423,10 @@
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C75" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D75" t="s">
         <v>148</v>
@@ -2448,10 +2442,10 @@
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2467,10 +2461,10 @@
         <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
@@ -2486,10 +2480,10 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -2505,10 +2499,10 @@
         <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2524,10 +2518,10 @@
         <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D80" t="s">
         <v>161</v>
@@ -2543,10 +2537,10 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D81" t="s">
         <v>164</v>
@@ -2562,10 +2556,10 @@
         <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
@@ -2581,10 +2575,10 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -2600,10 +2594,10 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -2619,10 +2613,10 @@
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C85" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -2638,10 +2632,10 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -2657,10 +2651,10 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -2676,10 +2670,10 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C88" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -2695,10 +2689,10 @@
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -2714,10 +2708,10 @@
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -2733,10 +2727,10 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -2752,10 +2746,10 @@
         <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -2771,10 +2765,10 @@
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
         <v>180</v>
@@ -2790,10 +2784,10 @@
         <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
         <v>63</v>
@@ -2809,10 +2803,10 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D95" t="s">
         <v>164</v>
@@ -2828,10 +2822,10 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C96" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D96" t="s">
         <v>185</v>
@@ -2847,10 +2841,10 @@
         <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C97" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D97" t="s">
         <v>188</v>
@@ -2866,10 +2860,10 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C98" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -2885,10 +2879,10 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D99" t="s">
         <v>192</v>
@@ -2904,10 +2898,10 @@
         <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D100" t="s">
         <v>192</v>
@@ -2923,10 +2917,10 @@
         <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D101" t="s">
         <v>185</v>
@@ -2942,10 +2936,10 @@
         <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D102" t="s">
         <v>197</v>
@@ -2961,10 +2955,10 @@
         <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
         <v>200</v>
@@ -2980,10 +2974,10 @@
         <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -2999,10 +2993,10 @@
         <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
@@ -3018,10 +3012,10 @@
         <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -3037,10 +3031,10 @@
         <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
@@ -3056,10 +3050,10 @@
         <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
@@ -3075,10 +3069,10 @@
         <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C109" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
@@ -3094,10 +3088,10 @@
         <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D110" t="s">
         <v>63</v>
@@ -3113,10 +3107,10 @@
         <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C111" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -3132,10 +3126,10 @@
         <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C112" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -3151,10 +3145,10 @@
         <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C113" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D113" t="s">
         <v>63</v>
@@ -3170,10 +3164,10 @@
         <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D114" t="s">
         <v>63</v>
@@ -3189,10 +3183,10 @@
         <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" t="s">
         <v>214</v>
@@ -3208,10 +3202,10 @@
         <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D116" t="s">
         <v>217</v>
@@ -3227,10 +3221,10 @@
         <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D117" t="s">
         <v>217</v>
@@ -3246,10 +3240,10 @@
         <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C118" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D118" t="s">
         <v>50</v>
@@ -3265,10 +3259,10 @@
         <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C119" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
@@ -3284,10 +3278,10 @@
         <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -3303,10 +3297,10 @@
         <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C121" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D121" t="s">
         <v>50</v>
@@ -3322,10 +3316,10 @@
         <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D122" t="s">
         <v>50</v>
@@ -3341,10 +3335,10 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C123" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D123" t="s">
         <v>50</v>
@@ -3360,10 +3354,10 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C124" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D124" t="s">
         <v>227</v>
@@ -3379,10 +3373,10 @@
         <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D125" t="s">
         <v>230</v>
@@ -3398,10 +3392,10 @@
         <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D126" t="s">
         <v>233</v>
@@ -3417,10 +3411,10 @@
         <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C127" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D127" t="s">
         <v>236</v>
@@ -3436,10 +3430,10 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C128" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D128" t="s">
         <v>239</v>
@@ -3455,10 +3449,10 @@
         <v>241</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C129" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D129" t="s">
         <v>239</v>
@@ -3468,25 +3462,6 @@
       </c>
       <c r="G129"/>
       <c r="H129"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>242</v>
-      </c>
-      <c r="B130" t="s">
-        <v>263</v>
-      </c>
-      <c r="C130" t="s">
-        <v>269</v>
-      </c>
-      <c r="D130" t="s">
-        <v>26</v>
-      </c>
-      <c r="E130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130"/>
-      <c r="H130"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
